--- a/Framework1/target/classes/testData/testData.xlsx
+++ b/Framework1/target/classes/testData/testData.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>Username</t>
   </si>
@@ -35,16 +35,10 @@
     <t>cxvjcvxzjcvj</t>
   </si>
   <si>
-    <t>testdata55</t>
-  </si>
-  <si>
-    <t>testdata56</t>
-  </si>
-  <si>
-    <t>admin95</t>
-  </si>
-  <si>
-    <t>admin96</t>
+    <t>data45</t>
+  </si>
+  <si>
+    <t>bread88</t>
   </si>
 </sst>
 </file>
@@ -438,15 +432,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.5703125" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -462,15 +457,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
         <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Framework1/target/classes/testData/testData.xlsx
+++ b/Framework1/target/classes/testData/testData.xlsx
@@ -1,16 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{D978CD25-9DCF-42A4-9287-F96E1FAE994B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15030" windowHeight="6180" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Credentials" sheetId="1" r:id="rId1"/>
     <sheet name="RegDetails" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:O17"/>
 </workbook>
 </file>
 
@@ -50,7 +52,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -108,9 +110,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -148,9 +150,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -185,7 +187,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -220,7 +222,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -393,7 +395,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -437,7 +439,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/Framework1/target/classes/testData/testData.xlsx
+++ b/Framework1/target/classes/testData/testData.xlsx
@@ -1,23 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{D978CD25-9DCF-42A4-9287-F96E1FAE994B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15030" windowHeight="6180" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Credentials" sheetId="1" r:id="rId1"/>
     <sheet name="RegDetails" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:O17"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>Username</t>
   </si>
@@ -37,22 +35,16 @@
     <t>cxvjcvxzjcvj</t>
   </si>
   <si>
-    <t>testdata55</t>
-  </si>
-  <si>
-    <t>testdata56</t>
-  </si>
-  <si>
-    <t>admin95</t>
-  </si>
-  <si>
-    <t>admin96</t>
+    <t>data45</t>
+  </si>
+  <si>
+    <t>bread88</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -110,9 +102,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -150,9 +142,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -187,7 +179,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -222,7 +214,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -395,7 +387,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -439,16 +431,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.5703125" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -464,15 +457,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
         <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
